--- a/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TaiLieu\Setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Commsights\Commsights.MVC\wwwroot\Download\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,20 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -47,9 +38,6 @@
     <t>Feature Corp</t>
   </si>
   <si>
-    <t>Product Segment</t>
-  </si>
-  <si>
     <t>Main category</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
     <t>Journalist</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -129,13 +114,19 @@
   </si>
   <si>
     <t xml:space="preserve"> Product Name</t>
+  </si>
+  <si>
+    <t>Segment Product</t>
+  </si>
+  <si>
+    <t>Tier CommSights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +141,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,11 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -486,122 +467,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="35" width="25.7109375" customWidth="1"/>
+    <col min="1" max="32" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
@@ -32,30 +32,9 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Corp Copy</t>
-  </si>
-  <si>
-    <t>Feature Corp</t>
-  </si>
-  <si>
-    <t>Main category</t>
-  </si>
-  <si>
-    <t>Sub category</t>
-  </si>
-  <si>
-    <t>Sentiment Product</t>
-  </si>
-  <si>
-    <t>Sentiment Corp</t>
-  </si>
-  <si>
     <t>Headline</t>
   </si>
   <si>
-    <t>Headline (English)</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -68,58 +47,79 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Tier Customer</t>
-  </si>
-  <si>
-    <t>Spoke Person Name</t>
-  </si>
-  <si>
-    <t>Spoke Person Title</t>
-  </si>
-  <si>
-    <t>Tone value</t>
-  </si>
-  <si>
-    <t>Tier value</t>
-  </si>
-  <si>
     <t>MPS</t>
   </si>
   <si>
-    <t>Headline Value</t>
-  </si>
-  <si>
-    <t>Spokeperson Value</t>
-  </si>
-  <si>
-    <t>Feature/mention Value</t>
-  </si>
-  <si>
-    <t>Picture Value</t>
-  </si>
-  <si>
-    <t>ROME Product</t>
-  </si>
-  <si>
-    <t>ROME Corp</t>
-  </si>
-  <si>
-    <t>SOE Corp(%)</t>
-  </si>
-  <si>
-    <t>SOE Product(%)</t>
-  </si>
-  <si>
-    <t>Feature Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Name</t>
-  </si>
-  <si>
-    <t>Segment Product</t>
-  </si>
-  <si>
-    <t>Tier CommSights</t>
+    <t>SOE_Product</t>
+  </si>
+  <si>
+    <t>SOE_Corp</t>
+  </si>
+  <si>
+    <t>Main_Category</t>
+  </si>
+  <si>
+    <t>Sub_Category</t>
+  </si>
+  <si>
+    <t>Corp_Copy</t>
+  </si>
+  <si>
+    <t>Feature_Corp</t>
+  </si>
+  <si>
+    <t>Sentiment_Corp</t>
+  </si>
+  <si>
+    <t>Segment_Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Product_Name</t>
+  </si>
+  <si>
+    <t>Sentiment_Product</t>
+  </si>
+  <si>
+    <t>Feature_Product</t>
+  </si>
+  <si>
+    <t>Headline_English</t>
+  </si>
+  <si>
+    <t>Tier_CommSights</t>
+  </si>
+  <si>
+    <t>Tier_Customer</t>
+  </si>
+  <si>
+    <t>Spoke_Person_Name</t>
+  </si>
+  <si>
+    <t>Spoke_Person_Title</t>
+  </si>
+  <si>
+    <t>Tone_Value</t>
+  </si>
+  <si>
+    <t>Headline_Value</t>
+  </si>
+  <si>
+    <t>Spoke_Person_Value</t>
+  </si>
+  <si>
+    <t>Feature_Value</t>
+  </si>
+  <si>
+    <t>Tier_Value</t>
+  </si>
+  <si>
+    <t>Picture_Value</t>
+  </si>
+  <si>
+    <t>ROME_Corp</t>
+  </si>
+  <si>
+    <t>ROME_Product</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,94 +486,94 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Source</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>ROME_Product</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="1" max="32" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,6 +577,9 @@
       </c>
       <c r="AF1" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/ReportMonthly.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Source</t>
   </si>
@@ -122,7 +122,16 @@
     <t>ROME_Product</t>
   </si>
   <si>
-    <t>Media</t>
+    <t>MediaTitle</t>
+  </si>
+  <si>
+    <t>MediaType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Advalue</t>
   </si>
 </sst>
 </file>
@@ -189,7 +198,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,18 +481,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="25.7109375" customWidth="1"/>
+    <col min="1" max="33" width="25.7109375" customWidth="1"/>
+    <col min="34" max="36" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,49 +549,58 @@
         <v>4</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
